--- a/Test Data/Data Analyst.xlsx
+++ b/Test Data/Data Analyst.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC704043-3AE1-4D5B-8D2F-6B34F6CBB114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E622831F-B872-482C-8D31-99C3A039F71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{08E266F4-A01B-4E22-B8D6-F1B8F2EF7C23}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="95">
   <si>
     <t>Daily Drops Chaser (per chaser)</t>
   </si>
@@ -78,12 +78,6 @@
     <t>Delivery Notes Checking</t>
   </si>
   <si>
-    <t>Delivery notes Reminder</t>
-  </si>
-  <si>
-    <t>Delivery Email Scaning (Per Thread)</t>
-  </si>
-  <si>
     <t>Hot food report data compilation (per caterer)</t>
   </si>
   <si>
@@ -228,9 +222,6 @@
     <t>Weekly / Monthly Reports checking (per dept.:Food, Procurement, Laundry, Security)</t>
   </si>
   <si>
-    <t>Power BI Weekly Report - Checking</t>
-  </si>
-  <si>
     <t>Power BI Weekly Dashbord</t>
   </si>
   <si>
@@ -264,56 +255,77 @@
     <t>Volume Sheet - Allan Reeder</t>
   </si>
   <si>
-    <t>Volume Sheet - Damas Gate (Cultural Snacks)</t>
-  </si>
-  <si>
     <t>Volume Sheet - Baby Provision</t>
   </si>
   <si>
-    <t>ff</t>
+    <t xml:space="preserve">Calls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emails </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Minutes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Tasks </t>
+  </si>
+  <si>
+    <t>Delivery Email Scanning (Per Thread)</t>
+  </si>
+  <si>
+    <t>Hatfield Sales Data</t>
+  </si>
+  <si>
+    <t>Volume Sheet - Dudra (Cultural Snacks)</t>
+  </si>
+  <si>
+    <t>Specify Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify No. Of Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Duration in Mins</t>
+  </si>
+  <si>
+    <t>Specify Task</t>
+  </si>
+  <si>
+    <t>Specify In Brief</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>Type 1 for Done</t>
+  </si>
+  <si>
+    <t>Equipment Log Update Amazon</t>
   </si>
   <si>
     <t>Procurement or Equipment Log - Amazon</t>
   </si>
   <si>
-    <t>Calls</t>
-  </si>
-  <si>
-    <t>Emails</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>Meeting Minutes</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Other Tasks</t>
-  </si>
-  <si>
     <t>Food Picture Check Per Day</t>
   </si>
   <si>
-    <t>Equipment Log Update Amazon</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Number</t>
-  </si>
-  <si>
-    <t>Textarea</t>
+    <t>Delivery Notes Reminder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +340,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -356,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -368,6 +391,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,36 +709,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1F14CA-1104-4AD6-BB06-7B44C74AAFC2}">
-  <dimension ref="A1:AG88"/>
+  <dimension ref="A1:AB88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -719,10 +752,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -730,10 +763,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -741,21 +774,21 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -763,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -790,24 +823,19 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -815,10 +843,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -826,10 +854,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -837,10 +865,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -848,431 +876,431 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
-      </c>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
-      </c>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
-      </c>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
-      </c>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
-      </c>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
-      </c>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
-      </c>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" t="s">
-        <v>88</v>
-      </c>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" t="s">
-        <v>88</v>
-      </c>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
-      </c>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
-      </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
-      </c>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
-      </c>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
-      </c>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
-      </c>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
-      </c>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
-      </c>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" t="s">
-        <v>88</v>
-      </c>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
-      </c>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1280,10 +1308,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1291,10 +1319,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1302,10 +1330,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1313,10 +1341,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1324,10 +1352,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1335,10 +1363,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1346,10 +1374,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,10 +1385,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,10 +1396,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1379,10 +1407,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,10 +1418,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1401,10 +1429,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1412,10 +1440,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1423,10 +1451,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1434,10 +1462,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1445,10 +1473,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1456,10 +1484,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1467,10 +1495,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1478,10 +1506,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1489,10 +1517,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1500,10 +1528,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1511,10 +1539,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1522,10 +1550,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1533,10 +1561,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1544,10 +1572,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1555,10 +1583,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1566,10 +1594,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1577,10 +1605,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1588,10 +1616,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1599,10 +1627,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1610,10 +1638,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1621,10 +1649,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1632,10 +1660,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1643,10 +1671,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1654,10 +1682,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1665,10 +1693,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1676,10 +1704,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1687,10 +1715,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1698,10 +1726,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1709,10 +1737,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
